--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hashed</t>
+          <t>test123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pbkdf2:sha256:260000$cJuDp36QGCjCYGQI$c59e972ceed9c753c8be13a802c33e8c537afd0945e67b0499396204a5322461</t>
+          <t>ali123</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,6 +545,39 @@
         <v>1</v>
       </c>
       <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>alii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>alihassancutt@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alihassan123@</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-26T19:50:31.710397</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,72 @@
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>allam@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pbkdf2:sha256:260000$jhqElP07ppJlhh3v$8e6af83a284632ae86d6b2c5f430b6b0efd7e235db92dbca4e9b7793331b61c8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-26T21:36:13.811742</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allam1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>allam100@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Allam123@</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-06-27T02:08:49.212447</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,39 @@
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Moataz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>moataz@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Moataz123@</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-06-28T01:21:57.229486</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,36 @@
           <t>verification_token</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>profile_photo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -512,6 +542,12 @@
         <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -545,6 +581,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -578,6 +620,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -611,6 +659,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,29 +698,57 @@
         <v>1</v>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Allam</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1201010100</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>uploads/5/profile_5.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Moataz</t>
+          <t>Moatazzzzz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>moataz@gmail.com</t>
+          <t>moataz100@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Moataz123@</t>
+          <t>Moataz12345@</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-28T01:21:57.229486</t>
+          <t>2025-06-30T16:17:36.576692</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -677,6 +759,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
